--- a/src/main/resources/template/fill.xlsx
+++ b/src/main/resources/template/fill.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9840"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:K19"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">“账户流水更新仅参考，最终以平台财务对账为准，若有疑问请与平台客服或业务经理联系” </t>
   </si>
@@ -29,13 +30,13 @@
     <t>保证金占用</t>
   </si>
   <si>
-    <t>{name}</t>
-  </si>
-  <si>
-    <t>{age}</t>
-  </si>
-  <si>
-    <t>{email}</t>
+    <t>{keYongMoney}</t>
+  </si>
+  <si>
+    <t>{orderMoney}</t>
+  </si>
+  <si>
+    <t>{ensureMoney}</t>
   </si>
   <si>
     <t>订单占用明细</t>
@@ -110,25 +111,28 @@
     <t>日期:{date}</t>
   </si>
   <si>
-    <t>买方账户流水</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>备注说明</t>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>邮箱</t>
   </si>
   <si>
     <t>{.name}</t>
   </si>
   <si>
     <t>{.age}</t>
+  </si>
+  <si>
+    <t>{.address}</t>
   </si>
   <si>
     <t>{.email}</t>
@@ -139,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -183,30 +187,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +255,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +270,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,27 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,43 +314,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +557,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +609,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,39 +643,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,17 +806,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,17 +1140,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="30.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.37962962962963" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.37962962962963" style="1" customWidth="1"/>
@@ -1170,143 +1174,174 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
+    <row r="9" spans="11:11">
+      <c r="K9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="11:11">
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="3" width="18.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
